--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3135.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3135.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.817450155793652</v>
+        <v>1.369850754737854</v>
       </c>
       <c r="B1">
-        <v>1.06780020994139</v>
+        <v>1.446391582489014</v>
       </c>
       <c r="C1">
-        <v>1.661674576009244</v>
+        <v>1.632881760597229</v>
       </c>
       <c r="D1">
-        <v>4.386769664093258</v>
+        <v>2.576910972595215</v>
       </c>
       <c r="E1">
-        <v>4.083224062275261</v>
+        <v>4.595821857452393</v>
       </c>
     </row>
   </sheetData>
